--- a/Conjunto de validación.xlsx
+++ b/Conjunto de validación.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Documentos\BIO_Data_Validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\UNR\5TO\Bioestadística\BIO_Data_Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,12 +29,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>descripción</t>
-  </si>
-  <si>
-    <t>condición</t>
-  </si>
-  <si>
     <t>Regla 1</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>Regla 18</t>
   </si>
   <si>
-    <t>pais fuera de la lista</t>
-  </si>
-  <si>
     <t>ID en formato DD/MM/YYYY-AA</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>consent completado</t>
   </si>
   <si>
-    <t>ID paciento completado</t>
-  </si>
-  <si>
     <t>Fecha de entrevista completada</t>
   </si>
   <si>
@@ -195,12 +183,24 @@
   </si>
   <si>
     <t>is.na(interview)</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Condición</t>
+  </si>
+  <si>
+    <t>ID paciente completado</t>
+  </si>
+  <si>
+    <t>País fuera de la lista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,10 +232,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,266 +532,266 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -805,12 +805,12 @@
     <mergeCell ref="C11:L11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
